--- a/xml-automation/automatic_xml_creator/Template_Juergen.xlsx
+++ b/xml-automation/automatic_xml_creator/Template_Juergen.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\melc-automation\xml-automation\automatic_xml_creator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MELC\xml-automation\automatic_xml_creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0566B3-D427-4207-B2B7-88CE94279DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="Run_settings" sheetId="2" r:id="rId1"/>
     <sheet name="MELC_panel" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1142,11 +1141,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1378,149 +1377,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1595,534 +1594,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2423,134 +1894,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="11">
+        <v>3</v>
+      </c>
       <c r="C1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1"/>
+    <row r="17" ht="18.75" customHeight="1"/>
+    <row r="18" ht="18.75" customHeight="1"/>
+    <row r="19" ht="18.75" customHeight="1"/>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1"/>
+    <row r="22" ht="18.75" customHeight="1"/>
+    <row r="23" ht="18.75" customHeight="1"/>
+    <row r="24" ht="18.75" customHeight="1"/>
+    <row r="25" ht="18.75" customHeight="1"/>
+    <row r="26" ht="18.75" customHeight="1"/>
+    <row r="27" ht="18.75" customHeight="1"/>
+    <row r="28" ht="18.75" customHeight="1"/>
+    <row r="29" ht="18.75" customHeight="1"/>
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1"/>
+    <row r="32" ht="18.75" customHeight="1"/>
+    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1"/>
+    <row r="35" ht="18.75" customHeight="1"/>
+    <row r="36" ht="18.75" customHeight="1"/>
+    <row r="37" ht="18.75" customHeight="1"/>
+    <row r="38" ht="18.75" customHeight="1"/>
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="40" ht="18.75" customHeight="1"/>
+    <row r="41" ht="18.75" customHeight="1"/>
+    <row r="42" ht="18.75" customHeight="1"/>
+    <row r="43" ht="18.75" customHeight="1"/>
+    <row r="44" ht="18.75" customHeight="1"/>
+    <row r="45" ht="18.75" customHeight="1"/>
+    <row r="46" ht="18.75" customHeight="1"/>
+    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="48" ht="18.75" customHeight="1"/>
+    <row r="49" ht="18.75" customHeight="1"/>
+    <row r="50" ht="18.75" customHeight="1"/>
+    <row r="51" ht="18.75" customHeight="1"/>
+    <row r="52" ht="18.75" customHeight="1"/>
+    <row r="53" ht="18.75" customHeight="1"/>
+    <row r="54" ht="18.75" customHeight="1"/>
+    <row r="55" ht="18.75" customHeight="1"/>
+    <row r="56" ht="18.75" customHeight="1"/>
+    <row r="57" ht="18.75" customHeight="1"/>
+    <row r="58" ht="18.75" customHeight="1"/>
+    <row r="59" ht="18.75" customHeight="1"/>
+    <row r="60" ht="18.75" customHeight="1"/>
+    <row r="61" ht="18.75" customHeight="1"/>
+    <row r="62" ht="18.75" customHeight="1"/>
+    <row r="63" ht="18.75" customHeight="1"/>
+    <row r="64" ht="18.75" customHeight="1"/>
+    <row r="65" ht="18.75" customHeight="1"/>
+    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="67" ht="18.75" customHeight="1"/>
+    <row r="68" ht="18.75" customHeight="1"/>
+    <row r="69" ht="18.75" customHeight="1"/>
+    <row r="70" ht="18.75" customHeight="1"/>
+    <row r="71" ht="18.75" customHeight="1"/>
+    <row r="72" ht="18.75" customHeight="1"/>
+    <row r="73" ht="18.75" customHeight="1"/>
+    <row r="74" ht="18.75" customHeight="1"/>
+    <row r="75" ht="18.75" customHeight="1"/>
+    <row r="76" ht="18.75" customHeight="1"/>
+    <row r="77" ht="18.75" customHeight="1"/>
+    <row r="78" ht="18.75" customHeight="1"/>
+    <row r="79" ht="18.75" customHeight="1"/>
+    <row r="80" ht="18.75" customHeight="1"/>
+    <row r="81" ht="18.75" customHeight="1"/>
+    <row r="82" ht="18.75" customHeight="1"/>
+    <row r="83" ht="18.75" customHeight="1"/>
+    <row r="84" ht="18.75" customHeight="1"/>
+    <row r="85" ht="18.75" customHeight="1"/>
+    <row r="86" ht="18.75" customHeight="1"/>
+    <row r="87" ht="18.75" customHeight="1"/>
+    <row r="88" ht="18.75" customHeight="1"/>
+    <row r="89" ht="18.75" customHeight="1"/>
+    <row r="90" ht="18.75" customHeight="1"/>
+    <row r="91" ht="18.75" customHeight="1"/>
+    <row r="92" ht="18.75" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2558,89 +2033,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.9296875" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.265625" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.53125" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.06640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.46484375" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.53125" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="65.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="65.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="12" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="57">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -2653,142 +2128,142 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="23">
+      <c r="E3" s="15"/>
+      <c r="F3" s="50">
         <f>60-G5</f>
         <v>60</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="21">
+      <c r="G3" s="17"/>
+      <c r="H3" s="47">
         <v>900</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="19">
         <v>900</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="24">
+      <c r="D4" s="45"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="19">
         <v>600</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="14">
+      <c r="D5" s="45"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="12">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="3"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="29"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A6" s="54"/>
+      <c r="B6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="14">
+      <c r="D6" s="46"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="12">
         <v>0</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="3"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>50</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="50">
         <f>60-G7-G8-G9-G10</f>
         <v>43.2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <f>2*(60/E7)</f>
         <v>2.4</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="47">
         <v>3300</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>300</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>79</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -2801,32 +2276,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="17">
+      <c r="D8" s="56"/>
+      <c r="E8" s="15">
         <v>50</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="18">
+      <c r="F8" s="51"/>
+      <c r="G8" s="16">
         <f>2*(60/E8)</f>
         <v>2.4</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="24">
+      <c r="H8" s="48"/>
+      <c r="I8" s="19">
         <v>300</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>86</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -2839,32 +2314,32 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="17">
+      <c r="D9" s="56"/>
+      <c r="E9" s="15">
         <v>10</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="18">
+      <c r="F9" s="51"/>
+      <c r="G9" s="16">
         <f>2*(60/E9)</f>
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="14">
+      <c r="H9" s="48"/>
+      <c r="I9" s="12">
         <v>300</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="3"/>
       <c r="N9" s="5" t="s">
         <v>91</v>
@@ -2873,68 +2348,68 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29"/>
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A10" s="54"/>
+      <c r="B10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="17">
+      <c r="D10" s="57"/>
+      <c r="E10" s="15">
         <v>10000</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="18">
+      <c r="F10" s="52"/>
+      <c r="G10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="24">
+      <c r="H10" s="49"/>
+      <c r="I10" s="19">
         <v>1</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21">
+    <row r="11" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A11" s="47">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>50</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="50">
         <f>60-G11-G12-G13</f>
         <v>54.900000000000006</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <f t="shared" ref="G11:G42" si="0">2*(60/E11)</f>
         <v>2.4</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="47">
         <v>3300</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="19">
         <v>300</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="13" t="s">
         <v>95</v>
       </c>
       <c r="M11" s="3"/>
@@ -2945,32 +2420,32 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="17">
+      <c r="D12" s="56"/>
+      <c r="E12" s="15">
         <v>400</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="18">
+      <c r="F12" s="51"/>
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="14">
+      <c r="H12" s="48"/>
+      <c r="I12" s="12">
         <v>600</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="13" t="s">
         <v>101</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -2983,32 +2458,32 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="29"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A13" s="54"/>
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="17">
+      <c r="D13" s="57"/>
+      <c r="E13" s="15">
         <v>50</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="18">
+      <c r="F13" s="52"/>
+      <c r="G13" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="24">
+      <c r="H13" s="49"/>
+      <c r="I13" s="19">
         <v>300</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>104</v>
       </c>
       <c r="M13" s="6"/>
@@ -3019,41 +2494,41 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21">
+    <row r="14" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A14" s="47">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>100</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="50">
         <f>60-G14-G15</f>
         <v>56.4</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="47">
         <v>3300</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <v>600</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="13" t="s">
         <v>108</v>
       </c>
       <c r="M14" s="3"/>
@@ -3064,32 +2539,32 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="17">
+      <c r="D15" s="46"/>
+      <c r="E15" s="15">
         <v>50</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="18">
+      <c r="F15" s="49"/>
+      <c r="G15" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="14">
+      <c r="H15" s="49"/>
+      <c r="I15" s="12">
         <v>600</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15" t="s">
+      <c r="J15" s="12"/>
+      <c r="K15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="3" t="s">
         <v>113</v>
       </c>
@@ -3100,41 +2575,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="21">
+    <row r="16" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A16" s="47">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>100</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="50">
         <f>60-G16-G17</f>
         <v>58.199999999999996</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="47">
         <v>3300</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="19">
         <v>300</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15" t="s">
+      <c r="J16" s="12"/>
+      <c r="K16" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="13" t="s">
         <v>116</v>
       </c>
       <c r="M16" s="3"/>
@@ -3145,32 +2620,32 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="29"/>
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="17">
+      <c r="D17" s="46"/>
+      <c r="E17" s="15">
         <v>200</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="18">
+      <c r="F17" s="49"/>
+      <c r="G17" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="14">
+      <c r="H17" s="49"/>
+      <c r="I17" s="12">
         <v>600</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="3"/>
       <c r="N17" s="5" t="s">
         <v>120</v>
@@ -3179,41 +2654,41 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="21">
+    <row r="18" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A18" s="47">
         <v>6</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>200</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="50">
         <f>60-G18-G19</f>
         <v>58.199999999999996</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="47">
         <v>3300</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="19">
         <v>600</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="13" t="s">
         <v>122</v>
       </c>
       <c r="M18" s="3"/>
@@ -3224,32 +2699,32 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="29"/>
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A19" s="54"/>
+      <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="17">
+      <c r="D19" s="46"/>
+      <c r="E19" s="15">
         <v>100</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="18">
+      <c r="F19" s="49"/>
+      <c r="G19" s="16">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="14">
+      <c r="H19" s="49"/>
+      <c r="I19" s="12">
         <v>900</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="13" t="s">
         <v>126</v>
       </c>
       <c r="M19" s="3"/>
@@ -3260,41 +2735,41 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="14">
+    <row r="20" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A20" s="12">
         <v>7</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>50</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <f t="shared" ref="F20:F65" si="1">60-G20</f>
         <v>57.6</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>3300</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="19">
         <v>300</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="13" t="s">
         <v>130</v>
       </c>
       <c r="M20" s="3"/>
@@ -3305,41 +2780,41 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="14">
+    <row r="21" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A21" s="12">
         <v>8</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>50</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>900</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <v>300</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="13" t="s">
         <v>134</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -3352,41 +2827,41 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A22" s="12">
         <v>9</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>10</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <v>900</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="12">
         <v>600</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L22" s="15"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="3" t="s">
         <v>140</v>
       </c>
@@ -3397,41 +2872,41 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="14">
+    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A23" s="12">
         <v>10</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>50</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <v>3000</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="12">
         <v>300</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15" t="s">
+      <c r="J23" s="12"/>
+      <c r="K23" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="13" t="s">
         <v>143</v>
       </c>
       <c r="M23" s="3"/>
@@ -3442,41 +2917,41 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="14">
+    <row r="24" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A24" s="12">
         <v>11</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>50</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <v>3300</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="12">
         <v>300</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>148</v>
       </c>
       <c r="M24" s="3"/>
@@ -3487,41 +2962,41 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="14">
+    <row r="25" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A25" s="12">
         <v>12</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>200</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f t="shared" si="1"/>
         <v>59.4</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>3300</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="12">
         <v>300</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="13" t="s">
         <v>153</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -3534,41 +3009,41 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="14">
+    <row r="26" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A26" s="12">
         <v>13</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <v>50</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>3300</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="12">
         <v>300</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="12"/>
+      <c r="K26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="13" t="s">
         <v>158</v>
       </c>
       <c r="M26" s="3"/>
@@ -3579,41 +3054,41 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="14">
+    <row r="27" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A27" s="12">
         <v>14</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <v>50</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>3300</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="19">
         <v>300</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="13" t="s">
         <v>162</v>
       </c>
       <c r="M27" s="3"/>
@@ -3624,41 +3099,41 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="14">
+    <row r="28" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A28" s="12">
         <v>15</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <v>50</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>3300</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="19">
         <v>300</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="13" t="s">
         <v>166</v>
       </c>
       <c r="M28" s="3"/>
@@ -3669,41 +3144,41 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="14">
+    <row r="29" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A29" s="12">
         <v>16</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>100</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <v>2700</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="19">
         <v>600</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="13" t="s">
         <v>170</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -3716,41 +3191,41 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="14">
+    <row r="30" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A30" s="12">
         <v>17</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <v>50</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>3300</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="19">
         <v>300</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="13" t="s">
         <v>175</v>
       </c>
       <c r="M30" s="3"/>
@@ -3761,41 +3236,41 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="14">
+    <row r="31" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A31" s="12">
         <v>18</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="23">
         <v>50</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="24">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="24">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="25">
         <v>1800</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="26">
         <v>600</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="36" t="s">
+      <c r="J31" s="25"/>
+      <c r="K31" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="21" t="s">
         <v>180</v>
       </c>
       <c r="M31" s="7"/>
@@ -3806,41 +3281,41 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="14">
+    <row r="32" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A32" s="12">
         <v>19</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <v>50</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <v>3300</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="19">
         <v>300</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15" t="s">
+      <c r="J32" s="12"/>
+      <c r="K32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="13" t="s">
         <v>184</v>
       </c>
       <c r="M32" s="3"/>
@@ -3851,41 +3326,41 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="14">
+    <row r="33" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A33" s="12">
         <v>20</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>50</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>2700</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="19">
         <v>600</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15" t="s">
+      <c r="J33" s="12"/>
+      <c r="K33" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="13" t="s">
         <v>188</v>
       </c>
       <c r="M33" s="3"/>
@@ -3896,41 +3371,41 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="14">
+    <row r="34" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A34" s="12">
         <v>21</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <v>100</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="16">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="19">
         <v>2700</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="19">
         <v>600</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15" t="s">
+      <c r="J34" s="12"/>
+      <c r="K34" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="13" t="s">
         <v>192</v>
       </c>
       <c r="M34" s="6"/>
@@ -3941,41 +3416,41 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14">
+    <row r="35" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A35" s="12">
         <v>22</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <v>50</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="12">
         <v>3300</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="12">
         <v>300</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15" t="s">
+      <c r="J35" s="12"/>
+      <c r="K35" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="13" t="s">
         <v>196</v>
       </c>
       <c r="M35" s="3"/>
@@ -3986,41 +3461,41 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="14">
+    <row r="36" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A36" s="12">
         <v>23</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>200</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <f t="shared" si="1"/>
         <v>59.4</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="19">
         <v>3300</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="19">
         <v>600</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15" t="s">
+      <c r="J36" s="12"/>
+      <c r="K36" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="13" t="s">
         <v>201</v>
       </c>
       <c r="M36" s="6"/>
@@ -4031,41 +3506,41 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="14">
+    <row r="37" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A37" s="12">
         <v>24</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <v>50</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="19">
         <v>2700</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="19">
         <v>300</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15" t="s">
+      <c r="J37" s="12"/>
+      <c r="K37" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="13" t="s">
         <v>205</v>
       </c>
       <c r="M37" s="6" t="s">
@@ -4078,41 +3553,41 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="14">
+    <row r="38" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A38" s="12">
         <v>25</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <v>200</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <f t="shared" si="1"/>
         <v>59.4</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="19">
         <v>2700</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="19">
         <v>600</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15" t="s">
+      <c r="J38" s="12"/>
+      <c r="K38" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="L38" s="13" t="s">
         <v>210</v>
       </c>
       <c r="M38" s="6"/>
@@ -4123,41 +3598,41 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="14">
+    <row r="39" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A39" s="12">
         <v>26</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <v>10</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="16">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="19">
         <v>3300</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="19">
         <v>300</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15" t="s">
+      <c r="J39" s="12"/>
+      <c r="K39" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L39" s="15" t="s">
+      <c r="L39" s="13" t="s">
         <v>214</v>
       </c>
       <c r="M39" s="6"/>
@@ -4168,41 +3643,41 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="14">
+    <row r="40" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A40" s="12">
         <v>27</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <v>100</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="16">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="12">
         <v>3000</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="12">
         <v>300</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="13" t="s">
         <v>218</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -4215,41 +3690,41 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="14">
+    <row r="41" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A41" s="12">
         <v>28</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <v>50</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="19">
         <v>3300</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="19">
         <v>300</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15" t="s">
+      <c r="J41" s="12"/>
+      <c r="K41" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="13" t="s">
         <v>222</v>
       </c>
       <c r="M41" s="6" t="s">
@@ -4262,41 +3737,41 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="14">
+    <row r="42" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A42" s="12">
         <v>29</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
         <v>50</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="16">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="19">
         <v>1800</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="19">
         <v>600</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15" t="s">
+      <c r="J42" s="12"/>
+      <c r="K42" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="15" t="s">
+      <c r="L42" s="13" t="s">
         <v>226</v>
       </c>
       <c r="M42" s="6"/>
@@ -4307,82 +3782,82 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="14">
+    <row r="43" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A43" s="12">
         <v>30</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>25</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="16">
         <f t="shared" si="1"/>
         <v>55.2</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="16">
         <f t="shared" ref="G43:G74" si="2">2*(60/E43)</f>
         <v>4.8</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="12">
         <v>3300</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="12">
         <v>300</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15" t="s">
+      <c r="J43" s="12"/>
+      <c r="K43" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="L43" s="13" t="s">
         <v>232</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="14">
+    <row r="44" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A44" s="12">
         <v>31</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>50</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="12">
         <v>3000</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="12">
         <v>300</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15" t="s">
+      <c r="J44" s="12"/>
+      <c r="K44" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="13" t="s">
         <v>236</v>
       </c>
       <c r="M44" s="3"/>
@@ -4393,41 +3868,41 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="14">
+    <row r="45" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A45" s="12">
         <v>32</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
         <v>200</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="16">
         <f t="shared" si="1"/>
         <v>59.4</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="19">
         <v>2700</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="19">
         <v>600</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15" t="s">
+      <c r="J45" s="12"/>
+      <c r="K45" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="13" t="s">
         <v>240</v>
       </c>
       <c r="M45" s="6"/>
@@ -4438,39 +3913,39 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="14">
+    <row r="46" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A46" s="12">
         <v>33</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <v>10</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="16">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="19">
         <v>2400</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="19">
         <v>300</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
       <c r="M46" s="6"/>
       <c r="N46" s="5" t="s">
         <v>245</v>
@@ -4479,41 +3954,41 @@
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="14">
+    <row r="47" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A47" s="12">
         <v>34</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="15">
         <v>100</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="16">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="16">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="19">
         <v>2700</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="19">
         <v>600</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15" t="s">
+      <c r="J47" s="12"/>
+      <c r="K47" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="13" t="s">
         <v>247</v>
       </c>
       <c r="M47" s="6"/>
@@ -4524,41 +3999,41 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="14">
+    <row r="48" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A48" s="12">
         <v>35</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="15">
         <v>100</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="16">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="16">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="12">
         <v>2700</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="12">
         <v>300</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15" t="s">
+      <c r="J48" s="12"/>
+      <c r="K48" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="13" t="s">
         <v>251</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -4571,41 +4046,41 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="14">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A49" s="12">
         <v>36</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="15">
         <v>50</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <v>1800</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="12">
         <v>300</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15" t="s">
+      <c r="J49" s="12"/>
+      <c r="K49" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L49" s="15" t="s">
+      <c r="L49" s="13" t="s">
         <v>255</v>
       </c>
       <c r="M49" s="3"/>
@@ -4616,41 +4091,41 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="14">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A50" s="12">
         <v>37</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="15">
         <v>10</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="16">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="12">
         <v>3300</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="12">
         <v>300</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15" t="s">
+      <c r="J50" s="12"/>
+      <c r="K50" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L50" s="15" t="s">
+      <c r="L50" s="13" t="s">
         <v>258</v>
       </c>
       <c r="M50" s="3"/>
@@ -4661,41 +4136,41 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="14">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A51" s="12">
         <v>38</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
         <v>100</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="16">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="16">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="12">
         <v>1800</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="12">
         <v>600</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15" t="s">
+      <c r="J51" s="12"/>
+      <c r="K51" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L51" s="15" t="s">
+      <c r="L51" s="13" t="s">
         <v>262</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -4708,41 +4183,41 @@
         <v>265</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="14">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A52" s="12">
         <v>39</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
         <v>50</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="12">
         <v>900</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="12">
         <v>600</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15" t="s">
+      <c r="J52" s="12"/>
+      <c r="K52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L52" s="15" t="s">
+      <c r="L52" s="13" t="s">
         <v>266</v>
       </c>
       <c r="M52" s="3" t="s">
@@ -4755,41 +4230,41 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="14">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A53" s="12">
         <v>40</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="15">
         <v>10</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="16">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="12">
         <v>3300</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="12">
         <v>300</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15" t="s">
+      <c r="J53" s="12"/>
+      <c r="K53" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L53" s="15"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="3"/>
       <c r="N53" s="5" t="s">
         <v>272</v>
@@ -4798,41 +4273,41 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="14">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A54" s="12">
         <v>41</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="15">
         <v>50</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="12">
         <v>3300</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="12">
         <v>300</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15" t="s">
+      <c r="J54" s="12"/>
+      <c r="K54" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="13" t="s">
         <v>274</v>
       </c>
       <c r="M54" s="3"/>
@@ -4843,41 +4318,41 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="14">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A55" s="12">
         <v>42</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="15">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="12">
         <v>3000</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="12">
         <v>300</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15" t="s">
+      <c r="J55" s="12"/>
+      <c r="K55" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L55" s="15" t="s">
+      <c r="L55" s="13" t="s">
         <v>278</v>
       </c>
       <c r="M55" s="3"/>
@@ -4888,41 +4363,41 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="14">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A56" s="12">
         <v>43</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="15">
         <v>50</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="12">
         <v>2400</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="12">
         <v>300</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15" t="s">
+      <c r="J56" s="12"/>
+      <c r="K56" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L56" s="15" t="s">
+      <c r="L56" s="13" t="s">
         <v>282</v>
       </c>
       <c r="M56" s="3"/>
@@ -4933,41 +4408,41 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="14">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A57" s="12">
         <v>44</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="15">
         <v>50</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="12">
         <v>1800</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="12">
         <v>300</v>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15" t="s">
+      <c r="J57" s="12"/>
+      <c r="K57" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="13" t="s">
         <v>286</v>
       </c>
       <c r="M57" s="3"/>
@@ -4978,41 +4453,41 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="14">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A58" s="12">
         <v>45</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="15">
         <v>50</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="12">
         <v>2400</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="12">
         <v>300</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="15" t="s">
+      <c r="J58" s="12"/>
+      <c r="K58" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="13" t="s">
         <v>290</v>
       </c>
       <c r="M58" s="3"/>
@@ -5023,41 +4498,41 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="14">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A59" s="12">
         <v>46</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="15">
         <v>100</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="16">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="16">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="12">
         <v>2400</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="12">
         <v>600</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="15" t="s">
+      <c r="J59" s="12"/>
+      <c r="K59" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L59" s="15" t="s">
+      <c r="L59" s="13" t="s">
         <v>293</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -5070,41 +4545,41 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="14">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A60" s="12">
         <v>47</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="15">
         <v>25</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="16">
         <f t="shared" si="1"/>
         <v>55.2</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="16">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="12">
         <v>2400</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="12">
         <v>300</v>
       </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15" t="s">
+      <c r="J60" s="12"/>
+      <c r="K60" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L60" s="15" t="s">
+      <c r="L60" s="13" t="s">
         <v>297</v>
       </c>
       <c r="M60" s="3" t="s">
@@ -5117,41 +4592,41 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="14">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A61" s="12">
         <v>48</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="15">
         <v>20</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="16">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="16">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="12">
         <v>2700</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="12">
         <v>600</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="15" t="s">
+      <c r="J61" s="12"/>
+      <c r="K61" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="L61" s="15"/>
+      <c r="L61" s="13"/>
       <c r="M61" s="3" t="s">
         <v>303</v>
       </c>
@@ -5162,41 +4637,41 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="14">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A62" s="12">
         <v>49</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="15">
         <v>50</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="19">
         <v>900</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="19">
         <v>600</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="15" t="s">
+      <c r="J62" s="12"/>
+      <c r="K62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L62" s="15" t="s">
+      <c r="L62" s="13" t="s">
         <v>306</v>
       </c>
       <c r="M62" s="3"/>
@@ -5207,41 +4682,41 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="14">
+    <row r="63" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A63" s="12">
         <v>50</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="15">
         <v>300</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="16">
         <f t="shared" si="1"/>
         <v>59.6</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="12">
         <v>2700</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="12">
         <v>600</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="15" t="s">
+      <c r="J63" s="12"/>
+      <c r="K63" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L63" s="15" t="s">
+      <c r="L63" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M63" s="3" t="s">
@@ -5254,41 +4729,41 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="14">
+    <row r="64" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A64" s="12">
         <v>51</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="15">
         <v>200</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="16">
         <f t="shared" si="1"/>
         <v>59.4</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="12">
         <v>900</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="12">
         <v>600</v>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="15" t="s">
+      <c r="J64" s="12"/>
+      <c r="K64" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L64" s="35" t="s">
+      <c r="L64" s="20" t="s">
         <v>314</v>
       </c>
       <c r="M64" s="3" t="s">
@@ -5301,43 +4776,43 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="14">
+    <row r="65" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A65" s="12">
         <v>52</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="15">
         <v>50</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="16">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="12">
         <v>3000</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="12">
         <v>300</v>
       </c>
-      <c r="J65" s="42" t="s">
+      <c r="J65" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K65" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L65" s="15" t="s">
+      <c r="L65" s="13" t="s">
         <v>319</v>
       </c>
       <c r="M65" s="3"/>
@@ -5348,41 +4823,41 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="21">
+    <row r="66" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A66" s="47">
         <v>53</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="15">
         <v>50</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="50">
         <f>60-G66-G67</f>
         <v>57</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="47">
         <v>3000</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="12">
         <v>300</v>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15" t="s">
+      <c r="J66" s="12"/>
+      <c r="K66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L66" s="15"/>
+      <c r="L66" s="13"/>
       <c r="M66" s="3"/>
       <c r="N66" s="5" t="s">
         <v>1</v>
@@ -5391,32 +4866,32 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="29"/>
-      <c r="B67" s="15" t="s">
+    <row r="67" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A67" s="54"/>
+      <c r="B67" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="17">
+      <c r="D67" s="46"/>
+      <c r="E67" s="15">
         <v>200</v>
       </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="18">
+      <c r="F67" s="52"/>
+      <c r="G67" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H67" s="32"/>
-      <c r="I67" s="24">
+      <c r="H67" s="49"/>
+      <c r="I67" s="19">
         <v>600</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="15" t="s">
+      <c r="J67" s="12"/>
+      <c r="K67" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L67" s="15" t="s">
+      <c r="L67" s="13" t="s">
         <v>283</v>
       </c>
       <c r="M67" s="3" t="s">
@@ -5429,41 +4904,41 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="21">
+    <row r="68" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A68" s="47">
         <v>54</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="15">
         <v>200</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="50">
         <f>60-G68-G69</f>
         <v>58.199999999999996</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="47">
         <v>3000</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="12">
         <v>600</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="15" t="s">
+      <c r="J68" s="12"/>
+      <c r="K68" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="L68" s="15" t="s">
+      <c r="L68" s="13" t="s">
         <v>330</v>
       </c>
       <c r="M68" s="3" t="s">
@@ -5476,30 +4951,30 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="29"/>
-      <c r="B69" s="35" t="s">
+    <row r="69" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A69" s="54"/>
+      <c r="B69" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="17">
+      <c r="D69" s="46"/>
+      <c r="E69" s="15">
         <v>100</v>
       </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="18">
+      <c r="F69" s="52"/>
+      <c r="G69" s="16">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="H69" s="32"/>
-      <c r="I69" s="14">
+      <c r="H69" s="49"/>
+      <c r="I69" s="12">
         <v>300</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
       <c r="M69" s="3" t="s">
         <v>334</v>
       </c>
@@ -5510,43 +4985,43 @@
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="21">
+    <row r="70" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A70" s="47">
         <v>55</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="15">
         <v>50</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="50">
         <f>60-G70-G71</f>
         <v>57</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="16">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="47">
         <v>3000</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="12">
         <v>300</v>
       </c>
-      <c r="J70" s="42" t="s">
+      <c r="J70" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="K70" s="15" t="s">
+      <c r="K70" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="13" t="s">
         <v>337</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -5559,32 +5034,32 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="29"/>
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A71" s="54"/>
+      <c r="B71" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="17">
+      <c r="D71" s="46"/>
+      <c r="E71" s="15">
         <v>200</v>
       </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="18">
+      <c r="F71" s="52"/>
+      <c r="G71" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H71" s="32"/>
-      <c r="I71" s="24">
+      <c r="H71" s="49"/>
+      <c r="I71" s="19">
         <v>600</v>
       </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15" t="s">
+      <c r="J71" s="12"/>
+      <c r="K71" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L71" s="15" t="s">
+      <c r="L71" s="13" t="s">
         <v>342</v>
       </c>
       <c r="M71" s="6"/>
@@ -5595,41 +5070,41 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="21">
+    <row r="72" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A72" s="47">
         <v>56</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="15">
         <v>200</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="50">
         <f>60-G72-G73-G74</f>
         <v>57.9</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="47">
         <v>1800</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I72" s="19">
         <v>600</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15" t="s">
+      <c r="J72" s="12"/>
+      <c r="K72" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L72" s="15" t="s">
+      <c r="L72" s="13" t="s">
         <v>345</v>
       </c>
       <c r="M72" s="3"/>
@@ -5640,34 +5115,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="25"/>
-      <c r="B73" s="35" t="s">
+    <row r="73" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A73" s="53"/>
+      <c r="B73" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="17">
+      <c r="D73" s="45"/>
+      <c r="E73" s="15">
         <v>100</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="18">
+      <c r="F73" s="51"/>
+      <c r="G73" s="16">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="H73" s="28"/>
-      <c r="I73" s="14">
+      <c r="H73" s="48"/>
+      <c r="I73" s="12">
         <v>300</v>
       </c>
-      <c r="J73" s="42" t="s">
+      <c r="J73" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="K73" s="15" t="s">
+      <c r="K73" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="L73" s="15" t="s">
+      <c r="L73" s="13" t="s">
         <v>350</v>
       </c>
       <c r="M73" s="3"/>
@@ -5678,30 +5153,30 @@
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="29"/>
-      <c r="B74" s="15" t="s">
+    <row r="74" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A74" s="54"/>
+      <c r="B74" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="17">
+      <c r="D74" s="46"/>
+      <c r="E74" s="15">
         <v>400</v>
       </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="18">
+      <c r="F74" s="52"/>
+      <c r="G74" s="16">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="H74" s="32"/>
-      <c r="I74" s="14">
+      <c r="H74" s="49"/>
+      <c r="I74" s="12">
         <v>300</v>
       </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
       <c r="M74" s="3"/>
       <c r="N74" s="5" t="s">
         <v>353</v>
@@ -5710,141 +5185,167 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="43"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48">
+    <row r="75" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="33">
         <f>SUM(H5:H74)*1.1</f>
         <v>162360</v>
       </c>
-      <c r="I75" s="49">
+      <c r="I75" s="34">
         <f>SUM(I5:I74)</f>
         <v>28501</v>
       </c>
-      <c r="J75" s="43"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
       <c r="M75" s="9"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
     </row>
-    <row r="76" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="43"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48">
+    <row r="76" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="33">
         <f>H75/60</f>
         <v>2706</v>
       </c>
-      <c r="I76" s="48">
+      <c r="I76" s="33">
         <f>I75/60</f>
         <v>475.01666666666665</v>
       </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
       <c r="M76" s="9"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
     </row>
-    <row r="77" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="43"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48">
+    <row r="77" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="33">
         <f>H76/60</f>
         <v>45.1</v>
       </c>
-      <c r="I77" s="48" t="e">
+      <c r="I77" s="33" t="e">
         <f>(I76/60)*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J77" s="43"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
       <c r="M77" s="9"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
     </row>
-    <row r="78" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="43"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48" t="e">
+    <row r="78" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33" t="e">
         <f>I77+H77</f>
         <v>#REF!</v>
       </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
       <c r="M78" s="9"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
     </row>
-    <row r="79" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="43"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="50" t="s">
+    <row r="79" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="I79" s="51" t="e">
+      <c r="I79" s="36" t="e">
         <f>(I78+((50*20)/60))</f>
         <v>#REF!</v>
       </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
       <c r="M79" s="9"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
     </row>
-    <row r="80" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="43"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="50" t="s">
+    <row r="80" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="I80" s="51" t="e">
+      <c r="I80" s="36" t="e">
         <f>I79/24</f>
         <v>#REF!</v>
       </c>
-      <c r="J80" s="43"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
       <c r="M80" s="9"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="H66:H67"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="H3:H6"/>
@@ -5861,32 +5362,6 @@
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C1048576">
     <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
@@ -5926,7 +5401,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{C11B9E54-CE30-4DB2-974E-74E15BF298E0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
       <formula1>"PE,A555,FITC,Sytox,GFP,A488,APC,A647,DAPI"</formula1>
     </dataValidation>
   </dataValidations>
